--- a/game-server/config/data/questionData.xlsx
+++ b/game-server/config/data/questionData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26970" windowHeight="10560"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="问题表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>questionId</t>
   </si>
@@ -191,6 +191,54 @@
   </si>
   <si>
     <t>来干一杯</t>
+  </si>
+  <si>
+    <t>那我们去喝点什么吧?</t>
+  </si>
+  <si>
+    <t>不，我想休息了</t>
+  </si>
+  <si>
+    <t>嗯，好。</t>
+  </si>
+  <si>
+    <t>好了，我到家了。</t>
+  </si>
+  <si>
+    <t>早点休息</t>
+  </si>
+  <si>
+    <t>算了，你送我回家吧!</t>
+  </si>
+  <si>
+    <t>嗯</t>
+  </si>
+  <si>
+    <t>好吧!</t>
+  </si>
+  <si>
+    <t>安静的看电影中.....</t>
+  </si>
+  <si>
+    <t>不错哦!</t>
+  </si>
+  <si>
+    <t>很感触</t>
+  </si>
+  <si>
+    <t>暂时结束一段</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>有好吃的啦!</t>
+  </si>
+  <si>
+    <t>哈哈</t>
+  </si>
+  <si>
+    <t>嘻嘻</t>
   </si>
 </sst>
 </file>
@@ -198,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -227,8 +275,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,133 +412,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -392,187 +440,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,41 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,17 +654,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +690,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +751,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,13 +1243,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.625" style="1" customWidth="1"/>
@@ -1214,7 +1262,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1266,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1292,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1318,7 +1366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1344,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1370,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1396,7 +1444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1422,7 +1470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1448,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1474,7 +1522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1500,7 +1548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1520,13 +1568,13 @@
         <v>40</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1546,13 +1594,13 @@
         <v>43</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1572,13 +1620,13 @@
         <v>46</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1598,13 +1646,13 @@
         <v>49</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1624,13 +1672,13 @@
         <v>52</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1650,13 +1698,13 @@
         <v>55</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1676,10 +1724,166 @@
         <v>58</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="1">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="1">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="1">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="1">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/game-server/config/data/questionData.xlsx
+++ b/game-server/config/data/questionData.xlsx
@@ -247,9 +247,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -276,6 +276,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -285,6 +293,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +316,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -344,14 +368,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,17 +405,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,30 +418,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -440,6 +440,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,13 +470,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,61 +590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,79 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,11 +634,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +684,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,47 +731,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -739,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,133 +751,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1504,7 +1504,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1608,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
